--- a/7rmartSupermarket12/src/test/resources/TestData.xlsx
+++ b/7rmartSupermarket12/src/test/resources/TestData.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16296" windowHeight="7884" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16296" windowHeight="7884" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SignPage" sheetId="1" r:id="rId1"/>
     <sheet name="News" sheetId="2" r:id="rId2"/>
-    <sheet name="NewAdmin" sheetId="3" r:id="rId3"/>
-    <sheet name="SubCategory" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="NewAdmin" sheetId="3" r:id="rId5"/>
+    <sheet name="SubCategory" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:P25"/>
@@ -38,19 +40,19 @@
     <t>hello</t>
   </si>
   <si>
-    <t>rahul</t>
-  </si>
-  <si>
     <t>carrot</t>
   </si>
   <si>
-    <t>fruit</t>
-  </si>
-  <si>
     <t>veggies</t>
   </si>
   <si>
     <t>beetroot</t>
+  </si>
+  <si>
+    <t>nasir.grady</t>
+  </si>
+  <si>
+    <t>staff</t>
   </si>
 </sst>
 </file>
@@ -462,53 +464,76 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
